--- a/opinions/parsed_wiki_data/2003.xlsx
+++ b/opinions/parsed_wiki_data/2003.xlsx
@@ -792,7 +792,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">majority1 </t>
+          <t>majority1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">

--- a/opinions/parsed_wiki_data/2003.xlsx
+++ b/opinions/parsed_wiki_data/2003.xlsx
@@ -487,47 +487,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -537,47 +537,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -587,17 +587,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -607,27 +607,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -637,27 +637,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -667,17 +667,17 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -687,27 +687,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -742,42 +742,42 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -787,47 +787,47 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>majority2</t>
+          <t>majority concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>majority1</t>
+          <t>partjoinmajority majority dissent joinmajority</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>majority1</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>joinmajority2</t>
+          <t>majority concurrence partjoinconcurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence partjoinconcurrencedissent joindissent</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>joinmajority2</t>
+          <t>majority concurrence dissent concurrencedissent joinmajority joindissent</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>joinmajority1</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>partjoinmajority2</t>
+          <t>partjoinmajority majority concurrence partjoinconcurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence partjoinconcurrencedissent</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>joinmajority1</t>
+          <t>partjoinmajority majority dissent joinmajority joindissent</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>joinmajority1</t>
+          <t>partjoinmajority majority dissent joinmajority joindissent</t>
         </is>
       </c>
     </row>
@@ -842,42 +842,42 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -887,42 +887,42 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -937,12 +937,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -952,32 +952,32 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -987,7 +987,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1007,27 +1007,27 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>joinconcurrence</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>joinconcurrence</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1037,42 +1037,42 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1087,22 +1087,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1112,22 +1112,22 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1137,37 +1137,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1187,22 +1187,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1212,12 +1212,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1237,12 +1237,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1252,32 +1252,32 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1297,12 +1297,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority joinmajority</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1312,22 +1312,22 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1347,37 +1347,37 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1397,37 +1397,37 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>joindissent2</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1437,27 +1437,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>joindissent2</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1467,17 +1467,17 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1487,27 +1487,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority joinmajority</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1517,17 +1517,17 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -1537,17 +1537,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>partjoindissent</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1557,12 +1557,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1587,37 +1587,37 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1642,42 +1642,42 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1687,22 +1687,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1737,47 +1737,47 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1787,37 +1787,37 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>concurrence1</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1847,32 +1847,32 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1892,12 +1892,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>joinconcurrence</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1907,27 +1907,27 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1937,37 +1937,37 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1987,12 +1987,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2002,32 +2002,32 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2037,32 +2037,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2072,12 +2072,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2117,17 +2117,17 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>joinconcurrence</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2142,42 +2142,42 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
     </row>
@@ -2187,22 +2187,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2212,22 +2212,22 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2247,22 +2247,22 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2272,12 +2272,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>joinconcurrence</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
     </row>
@@ -2287,27 +2287,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2317,12 +2317,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>concurrence3</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2337,32 +2337,32 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2372,12 +2372,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2387,17 +2387,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2417,17 +2417,17 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2437,17 +2437,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2462,22 +2462,22 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>joindissent2</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>dissent3</t>
+          <t>dissent</t>
         </is>
       </c>
     </row>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2497,37 +2497,37 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2537,12 +2537,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2552,32 +2552,32 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2587,32 +2587,32 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2627,7 +2627,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2637,47 +2637,47 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2687,47 +2687,47 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2742,27 +2742,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2772,12 +2772,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2807,12 +2807,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2822,12 +2822,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2847,37 +2847,37 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
     </row>
@@ -2887,17 +2887,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2907,17 +2907,17 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -2937,27 +2937,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2967,17 +2967,17 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2997,37 +2997,37 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>joinconcurrence2</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3037,12 +3037,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3052,32 +3052,32 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3087,22 +3087,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3112,17 +3112,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3147,12 +3147,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3162,22 +3162,22 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
     </row>
@@ -3187,27 +3187,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3217,17 +3217,17 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
     </row>
@@ -3237,32 +3237,32 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3272,12 +3272,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3287,42 +3287,42 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>concurrence1</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3347,7 +3347,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>joinconcurrence1</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3357,27 +3357,27 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>partjoinconcurrence1</t>
+          <t>concurrence partjoinconcurrence joinconcurrence</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3387,17 +3387,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3407,27 +3407,27 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3437,17 +3437,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3457,7 +3457,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3467,17 +3467,17 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3487,22 +3487,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3512,12 +3512,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3537,32 +3537,32 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3587,12 +3587,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3607,22 +3607,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>joinconcurrence</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3637,22 +3637,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3662,22 +3662,22 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>joindissent2</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>joindissent2</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
     </row>
@@ -3687,32 +3687,32 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3722,12 +3722,12 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
     </row>
@@ -3737,32 +3737,32 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>concurrence1</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>joinconcurrence1</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3772,12 +3772,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -3787,12 +3787,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3807,17 +3807,17 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3837,12 +3837,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3852,32 +3852,32 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>dissent3</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3887,17 +3887,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>partjoindissent1</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3907,27 +3907,27 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>partjoindissent1</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -3937,17 +3937,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3957,22 +3957,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3987,22 +3987,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4012,12 +4012,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4027,7 +4027,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -4037,32 +4037,32 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -4072,12 +4072,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -4097,37 +4097,37 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4162,22 +4162,22 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -4187,12 +4187,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -4202,32 +4202,32 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>concurrencedissent</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>joinconcurrencedissent</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -4237,12 +4237,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -4252,12 +4252,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>concurrence1</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -4267,17 +4267,17 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
     </row>
@@ -4287,22 +4287,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>joinconcurrence</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4322,12 +4322,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
     </row>
@@ -4337,47 +4337,47 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>dissentwithoutopinion</t>
+          <t>dissentwithoutopinion dissent</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>dissentwithoutopinion</t>
+          <t>dissentwithoutopinion dissent</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>dissentwithoutopinion</t>
+          <t>dissentwithoutopinion dissent</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>dissentwithoutopinion</t>
+          <t>dissentwithoutopinion dissent</t>
         </is>
       </c>
     </row>
@@ -4387,22 +4387,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>joindissent2</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>joindissent2</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4412,22 +4412,22 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
     </row>

--- a/opinions/parsed_wiki_data/2003.xlsx
+++ b/opinions/parsed_wiki_data/2003.xlsx
@@ -487,47 +487,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -537,47 +537,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -587,17 +587,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -607,27 +607,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -637,27 +637,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -667,17 +667,17 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -687,27 +687,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -747,12 +747,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -762,22 +762,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -787,47 +787,47 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>majority concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent majority</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>partjoinmajority majority dissent joinmajority</t>
+          <t>dissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>majority concurrence partjoinconcurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence partjoinconcurrencedissent joindissent</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent joindissent joinmajority majority partjoinconcurrence partjoinconcurrencedissent</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>majority concurrence dissent concurrencedissent joinmajority joindissent</t>
+          <t>concurrence concurrencedissent dissent joindissent joinmajority majority</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence partjoinconcurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence partjoinconcurrencedissent</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent joinmajority majority partjoinconcurrence partjoinconcurrencedissent partjoinmajority</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>partjoinmajority majority dissent joinmajority joindissent</t>
+          <t>dissent joindissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>partjoinmajority majority dissent joinmajority joindissent</t>
+          <t>dissent joindissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
     </row>
@@ -842,42 +842,42 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -887,42 +887,42 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -937,12 +937,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -952,32 +952,32 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -987,7 +987,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1037,42 +1037,42 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
+          <t>concurrence concurrencedissent dissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1087,22 +1087,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1112,22 +1112,22 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1137,37 +1137,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1192,12 +1192,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1237,12 +1237,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1252,32 +1252,32 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1297,12 +1297,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>partjoinmajority majority joinmajority</t>
+          <t>joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1312,22 +1312,22 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1347,37 +1347,37 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1422,12 +1422,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1437,17 +1437,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1472,12 +1472,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1497,17 +1497,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>partjoinmajority majority joinmajority</t>
+          <t>joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1537,17 +1537,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1557,12 +1557,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1587,37 +1587,37 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
+          <t>concurrence concurrencedissent dissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1642,12 +1642,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1657,12 +1657,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1672,12 +1672,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1687,22 +1687,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1737,47 +1737,47 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1787,17 +1787,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1847,32 +1847,32 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1907,27 +1907,27 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1937,37 +1937,37 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1987,12 +1987,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2002,32 +2002,32 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
+          <t>concurrence concurrencedissent dissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2037,32 +2037,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2072,12 +2072,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2122,12 +2122,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2142,42 +2142,42 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2187,22 +2187,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2212,22 +2212,22 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2247,17 +2247,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2287,17 +2287,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2322,7 +2322,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2337,32 +2337,32 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2372,12 +2372,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2387,17 +2387,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2417,17 +2417,17 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2497,37 +2497,37 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2567,17 +2567,17 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2587,17 +2587,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2607,12 +2607,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2627,7 +2627,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2637,47 +2637,47 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2687,47 +2687,47 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2742,12 +2742,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2757,12 +2757,12 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2772,12 +2772,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2822,12 +2822,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2862,7 +2862,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2872,12 +2872,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2917,7 +2917,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2937,27 +2937,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2972,12 +2972,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3017,7 +3017,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3037,12 +3037,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3052,32 +3052,32 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3097,12 +3097,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3147,12 +3147,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3172,12 +3172,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3187,27 +3187,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3217,17 +3217,17 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3237,32 +3237,32 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3272,12 +3272,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3287,17 +3287,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3307,22 +3307,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3357,27 +3357,27 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>concurrence partjoinconcurrence joinconcurrence</t>
+          <t>concurrence joinconcurrence partjoinconcurrence</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3387,17 +3387,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3407,27 +3407,27 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3437,17 +3437,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3457,7 +3457,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3467,17 +3467,17 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3492,12 +3492,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3537,32 +3537,32 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3587,12 +3587,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3607,12 +3607,12 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3622,7 +3622,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3637,7 +3637,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3647,12 +3647,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3667,7 +3667,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3687,32 +3687,32 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3722,12 +3722,12 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3747,17 +3747,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3787,12 +3787,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3807,17 +3807,17 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3842,7 +3842,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3857,12 +3857,12 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3872,12 +3872,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3887,12 +3887,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3907,22 +3907,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3937,7 +3937,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3947,7 +3947,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3957,7 +3957,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3987,22 +3987,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4017,7 +4017,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
+          <t>concurrence concurrencedissent dissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4027,7 +4027,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4047,17 +4047,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -4097,17 +4097,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4117,7 +4117,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4162,7 +4162,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -4172,12 +4172,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -4187,7 +4187,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4207,12 +4207,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4222,12 +4222,12 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -4242,7 +4242,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -4272,12 +4272,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4302,7 +4302,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4337,47 +4337,47 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>dissentwithoutopinion dissent</t>
+          <t>dissent dissentwithoutopinion</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>dissentwithoutopinion dissent</t>
+          <t>dissent dissentwithoutopinion</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>dissentwithoutopinion dissent</t>
+          <t>dissent dissentwithoutopinion</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>dissentwithoutopinion dissent</t>
+          <t>dissent dissentwithoutopinion</t>
         </is>
       </c>
     </row>
@@ -4392,7 +4392,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -4412,17 +4412,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
